--- a/com.project.selenium/bin/TestData/Book1.xlsx
+++ b/com.project.selenium/bin/TestData/Book1.xlsx
@@ -12,7 +12,7 @@
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
@@ -35,12 +35,19 @@
   </si>
   <si>
     <t>!@##!!@</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -379,9 +386,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -402,6 +409,9 @@
       <c r="B2">
         <v>12312123</v>
       </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -410,6 +420,9 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -418,6 +431,9 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -425,6 +441,9 @@
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
